--- a/biology/Botanique/Parc_Lillepi/Parc_Lillepi.xlsx
+++ b/biology/Botanique/Parc_Lillepi/Parc_Lillepi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Parc Lillepi (estonien : Lillepi park)  est un parc du quartier de Pirita à Tallinn en Estonie[1],[2]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Parc Lillepi (estonien : Lillepi park)  est un parc du quartier de Pirita à Tallinn en Estonie,. 
 </t>
         </is>
       </c>
@@ -511,13 +523,15 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc est situé entre les rues Pirita, Saare, Kose et Rummu et est situé sur le terroir de l'ancienne ferme Lulepa de Peeter Lulepa. 
 Le parc actuel devait être un champ de foin. 
 La zone actuelle est principalement recouverte de bois autour d'un clairière de 3,5 ha.
 La végétation y règne, pins, aulnes noirs, frênes, ormes à écorce lisse, chênes et bouleaux. 
-Il y avait 74 espèces d'arbres et d'arbustes dans le parc en 2008, dont 35 étaient indigènes[2].  
+Il y avait 74 espèces d'arbres et d'arbustes dans le parc en 2008, dont 35 étaient indigènes.  
 </t>
         </is>
       </c>
